--- a/ClusterData/cluster_data.xlsx
+++ b/ClusterData/cluster_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chrisfan\Documents\GitHub\Data_Mining_Final_Project\ClusterData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="-20" yWindow="0" windowWidth="24040" windowHeight="9880"/>
   </bookViews>
   <sheets>
     <sheet name="cluster_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -906,7 +907,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -941,7 +942,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1118,7 +1119,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1128,16 +1129,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BU174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK15" workbookViewId="0">
-      <selection activeCell="AQ30" sqref="AQ30"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:73">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:73">
       <c r="A2">
         <v>355212</v>
       </c>
@@ -1579,7 +1580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:73">
       <c r="A3">
         <v>355218</v>
       </c>
@@ -1800,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:73">
       <c r="A4">
         <v>358857</v>
       </c>
@@ -2021,7 +2022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:73">
       <c r="A5">
         <v>358204</v>
       </c>
@@ -2242,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:73">
       <c r="A6">
         <v>357338</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:73">
       <c r="A7">
         <v>357086</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:73">
       <c r="A8">
         <v>330291</v>
       </c>
@@ -2905,7 +2906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:73">
       <c r="A9">
         <v>350423</v>
       </c>
@@ -3126,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:73">
       <c r="A10">
         <v>350424</v>
       </c>
@@ -3347,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:73">
       <c r="A11">
         <v>350425</v>
       </c>
@@ -3568,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:73">
       <c r="A12">
         <v>346409</v>
       </c>
@@ -3789,7 +3790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:73">
       <c r="A13">
         <v>330692</v>
       </c>
@@ -4010,7 +4011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:73">
       <c r="A14">
         <v>355453</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:73">
       <c r="A15">
         <v>355156</v>
       </c>
@@ -4452,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:73">
       <c r="A16">
         <v>349570</v>
       </c>
@@ -4673,7 +4674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:73">
       <c r="A17">
         <v>342966</v>
       </c>
@@ -4894,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:73">
       <c r="A18">
         <v>349576</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:73">
       <c r="A19">
         <v>352036</v>
       </c>
@@ -5336,7 +5337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:73">
       <c r="A20">
         <v>357771</v>
       </c>
@@ -5557,7 +5558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:73">
       <c r="A21">
         <v>356964</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:73">
       <c r="A22">
         <v>358126</v>
       </c>
@@ -5999,7 +6000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:73">
       <c r="A23">
         <v>358128</v>
       </c>
@@ -6220,7 +6221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:73">
       <c r="A24">
         <v>355205</v>
       </c>
@@ -6441,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:73">
       <c r="A25">
         <v>359336</v>
       </c>
@@ -6662,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:73">
       <c r="A26">
         <v>346330</v>
       </c>
@@ -6883,7 +6884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:73">
       <c r="A27">
         <v>358607</v>
       </c>
@@ -7104,7 +7105,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:73">
       <c r="A28">
         <v>350433</v>
       </c>
@@ -7325,7 +7326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:73">
       <c r="A29">
         <v>358603</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:73">
       <c r="A30">
         <v>358214</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:73">
       <c r="A31">
         <v>358608</v>
       </c>
@@ -7988,7 +7989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:73">
       <c r="A32">
         <v>331510</v>
       </c>
@@ -8209,7 +8210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:73">
       <c r="A33">
         <v>350439</v>
       </c>
@@ -8430,7 +8431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:73">
       <c r="A34">
         <v>355619</v>
       </c>
@@ -8651,7 +8652,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:73">
       <c r="A35">
         <v>355492</v>
       </c>
@@ -8872,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:73">
       <c r="A36">
         <v>355050</v>
       </c>
@@ -9093,7 +9094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:73">
       <c r="A37">
         <v>341298</v>
       </c>
@@ -9314,7 +9315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:73">
       <c r="A38">
         <v>357073</v>
       </c>
@@ -9535,7 +9536,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:73">
       <c r="A39">
         <v>356484</v>
       </c>
@@ -9756,7 +9757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:73">
       <c r="A40">
         <v>347687</v>
       </c>
@@ -9977,7 +9978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:73">
       <c r="A41">
         <v>355113</v>
       </c>
@@ -10198,7 +10199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:73">
       <c r="A42">
         <v>355446</v>
       </c>
@@ -10419,7 +10420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:73">
       <c r="A43">
         <v>355117</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:73">
       <c r="A44">
         <v>356356</v>
       </c>
@@ -10861,7 +10862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:73">
       <c r="A45">
         <v>348566</v>
       </c>
@@ -11082,7 +11083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:73">
       <c r="A46">
         <v>333386</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:73">
       <c r="A47">
         <v>355567</v>
       </c>
@@ -11524,7 +11525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:73">
       <c r="A48">
         <v>351929</v>
       </c>
@@ -11745,7 +11746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:73">
       <c r="A49">
         <v>358119</v>
       </c>
@@ -11966,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:73">
       <c r="A50">
         <v>358847</v>
       </c>
@@ -12187,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:73">
       <c r="A51">
         <v>351280</v>
       </c>
@@ -12408,7 +12409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:73">
       <c r="A52">
         <v>346346</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:73">
       <c r="A53">
         <v>356522</v>
       </c>
@@ -12850,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:73">
       <c r="A54">
         <v>358194</v>
       </c>
@@ -13071,7 +13072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:73">
       <c r="A55">
         <v>358617</v>
       </c>
@@ -13292,7 +13293,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:73">
       <c r="A56">
         <v>356565</v>
       </c>
@@ -13513,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:73">
       <c r="A57">
         <v>341943</v>
       </c>
@@ -13734,7 +13735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:73">
       <c r="A58">
         <v>358594</v>
       </c>
@@ -13955,7 +13956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:73">
       <c r="A59">
         <v>357724</v>
       </c>
@@ -14176,7 +14177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:73">
       <c r="A60">
         <v>355283</v>
       </c>
@@ -14397,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:73">
       <c r="A61">
         <v>358873</v>
       </c>
@@ -14618,7 +14619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:73">
       <c r="A62">
         <v>356314</v>
       </c>
@@ -14839,7 +14840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:73">
       <c r="A63">
         <v>340051</v>
       </c>
@@ -15060,7 +15061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:73">
       <c r="A64">
         <v>345221</v>
       </c>
@@ -15281,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:73">
       <c r="A65">
         <v>353424</v>
       </c>
@@ -15502,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:73">
       <c r="A66">
         <v>356259</v>
       </c>
@@ -15723,7 +15724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:73">
       <c r="A67">
         <v>355144</v>
       </c>
@@ -15944,7 +15945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:73">
       <c r="A68">
         <v>355145</v>
       </c>
@@ -16165,7 +16166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:73">
       <c r="A69">
         <v>357751</v>
       </c>
@@ -16386,7 +16387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:73">
       <c r="A70">
         <v>330001</v>
       </c>
@@ -16607,7 +16608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:73">
       <c r="A71">
         <v>357802</v>
       </c>
@@ -16828,7 +16829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:73">
       <c r="A72">
         <v>358187</v>
       </c>
@@ -17049,7 +17050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:73">
       <c r="A73">
         <v>351274</v>
       </c>
@@ -17270,7 +17271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:73">
       <c r="A74">
         <v>345331</v>
       </c>
@@ -17491,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:73">
       <c r="A75">
         <v>356214</v>
       </c>
@@ -17712,7 +17713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:73">
       <c r="A76">
         <v>357360</v>
       </c>
@@ -17933,7 +17934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:73">
       <c r="A77">
         <v>349850</v>
       </c>
@@ -18154,7 +18155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:73">
       <c r="A78">
         <v>346105</v>
       </c>
@@ -18375,7 +18376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:73">
       <c r="A79">
         <v>347593</v>
       </c>
@@ -18596,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:73">
       <c r="A80">
         <v>355677</v>
       </c>
@@ -18817,7 +18818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:73">
       <c r="A81">
         <v>354084</v>
       </c>
@@ -19038,7 +19039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:73">
       <c r="A82">
         <v>355675</v>
       </c>
@@ -19259,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:73">
       <c r="A83">
         <v>346109</v>
       </c>
@@ -19480,7 +19481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:73">
       <c r="A84">
         <v>345536</v>
       </c>
@@ -19701,7 +19702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:73">
       <c r="A85">
         <v>349481</v>
       </c>
@@ -19922,7 +19923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:73">
       <c r="A86">
         <v>345560</v>
       </c>
@@ -20143,7 +20144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:73">
       <c r="A87">
         <v>348520</v>
       </c>
@@ -20364,7 +20365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:73">
       <c r="A88">
         <v>344778</v>
       </c>
@@ -20585,7 +20586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:73">
       <c r="A89">
         <v>351997</v>
       </c>
@@ -20806,7 +20807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:73">
       <c r="A90">
         <v>353486</v>
       </c>
@@ -21027,7 +21028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:73">
       <c r="A91">
         <v>351995</v>
       </c>
@@ -21248,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:73">
       <c r="A92">
         <v>355497</v>
       </c>
@@ -21469,7 +21470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:73">
       <c r="A93">
         <v>357078</v>
       </c>
@@ -21690,7 +21691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:73">
       <c r="A94">
         <v>357721</v>
       </c>
@@ -21911,7 +21912,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:73">
       <c r="A95">
         <v>357689</v>
       </c>
@@ -22132,7 +22133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:73">
       <c r="A96">
         <v>358579</v>
       </c>
@@ -22353,7 +22354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:73">
       <c r="A97">
         <v>349538</v>
       </c>
@@ -22574,7 +22575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:73">
       <c r="A98">
         <v>337778</v>
       </c>
@@ -22795,7 +22796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:73">
       <c r="A99">
         <v>333163</v>
       </c>
@@ -23016,7 +23017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:73">
       <c r="A100">
         <v>358570</v>
       </c>
@@ -23237,7 +23238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:73">
       <c r="A101">
         <v>353164</v>
       </c>
@@ -23458,7 +23459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:73">
       <c r="A102">
         <v>356304</v>
       </c>
@@ -23679,7 +23680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:73">
       <c r="A103">
         <v>354098</v>
       </c>
@@ -23900,7 +23901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:73">
       <c r="A104">
         <v>351919</v>
       </c>
@@ -24121,7 +24122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:73">
       <c r="A105">
         <v>353408</v>
       </c>
@@ -24342,7 +24343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:73">
       <c r="A106">
         <v>331220</v>
       </c>
@@ -24563,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:73">
       <c r="A107">
         <v>333733</v>
       </c>
@@ -24784,7 +24785,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:73">
       <c r="A108">
         <v>347674</v>
       </c>
@@ -25005,7 +25006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:73">
       <c r="A109">
         <v>352070</v>
       </c>
@@ -25226,7 +25227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:73">
       <c r="A110">
         <v>347489</v>
       </c>
@@ -25447,7 +25448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:73">
       <c r="A111">
         <v>355080</v>
       </c>
@@ -25668,7 +25669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:73">
       <c r="A112">
         <v>358948</v>
       </c>
@@ -25889,7 +25890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:73">
       <c r="A113">
         <v>352992</v>
       </c>
@@ -26110,7 +26111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:73">
       <c r="A114">
         <v>355451</v>
       </c>
@@ -26331,7 +26332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:73">
       <c r="A115">
         <v>355546</v>
       </c>
@@ -26552,7 +26553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:73">
       <c r="A116">
         <v>355134</v>
       </c>
@@ -26773,7 +26774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:73">
       <c r="A117">
         <v>353176</v>
       </c>
@@ -26994,7 +26995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:73">
       <c r="A118">
         <v>345238</v>
       </c>
@@ -27215,7 +27216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:73">
       <c r="A119">
         <v>357735</v>
       </c>
@@ -27436,7 +27437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:73">
       <c r="A120">
         <v>357068</v>
       </c>
@@ -27657,7 +27658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:73">
       <c r="A121">
         <v>357736</v>
       </c>
@@ -27878,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:73">
       <c r="A122">
         <v>355710</v>
       </c>
@@ -28099,7 +28100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:73">
       <c r="A123">
         <v>358892</v>
       </c>
@@ -28320,7 +28321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:73">
       <c r="A124">
         <v>352079</v>
       </c>
@@ -28541,7 +28542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:73">
       <c r="A125">
         <v>353070</v>
       </c>
@@ -28762,7 +28763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:73">
       <c r="A126">
         <v>355417</v>
       </c>
@@ -28983,7 +28984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:73">
       <c r="A127">
         <v>358623</v>
       </c>
@@ -29204,7 +29205,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="128" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:73">
       <c r="A128">
         <v>354125</v>
       </c>
@@ -29425,7 +29426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:73">
       <c r="A129">
         <v>355639</v>
       </c>
@@ -29646,7 +29647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:73">
       <c r="A130">
         <v>354043</v>
       </c>
@@ -29867,7 +29868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:73">
       <c r="A131">
         <v>358936</v>
       </c>
@@ -30088,7 +30089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:73">
       <c r="A132">
         <v>341980</v>
       </c>
@@ -30309,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:73">
       <c r="A133">
         <v>356181</v>
       </c>
@@ -30530,7 +30531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:73">
       <c r="A134">
         <v>358863</v>
       </c>
@@ -30751,7 +30752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:73">
       <c r="A135">
         <v>356959</v>
       </c>
@@ -30972,7 +30973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:73">
       <c r="A136">
         <v>357700</v>
       </c>
@@ -31193,7 +31194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:73">
       <c r="A137">
         <v>357701</v>
       </c>
@@ -31414,7 +31415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:73">
       <c r="A138">
         <v>352950</v>
       </c>
@@ -31635,7 +31636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:73">
       <c r="A139">
         <v>355073</v>
       </c>
@@ -31856,7 +31857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:73">
       <c r="A140">
         <v>358228</v>
       </c>
@@ -32077,7 +32078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:73">
       <c r="A141">
         <v>357783</v>
       </c>
@@ -32298,7 +32299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:73">
       <c r="A142">
         <v>353069</v>
       </c>
@@ -32519,7 +32520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:73">
       <c r="A143">
         <v>355642</v>
       </c>
@@ -32740,7 +32741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:73">
       <c r="A144">
         <v>350407</v>
       </c>
@@ -32961,7 +32962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:73">
       <c r="A145">
         <v>355438</v>
       </c>
@@ -33182,7 +33183,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="146" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:73">
       <c r="A146">
         <v>357113</v>
       </c>
@@ -33403,7 +33404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:73">
       <c r="A147">
         <v>350401</v>
       </c>
@@ -33624,7 +33625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:73">
       <c r="A148">
         <v>355530</v>
       </c>
@@ -33845,7 +33846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="149" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:73">
       <c r="A149">
         <v>356518</v>
       </c>
@@ -34066,7 +34067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:73">
       <c r="A150">
         <v>355532</v>
       </c>
@@ -34287,7 +34288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:73">
       <c r="A151">
         <v>356352</v>
       </c>
@@ -34508,7 +34509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:73">
       <c r="A152">
         <v>356512</v>
       </c>
@@ -34729,7 +34730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:73">
       <c r="A153">
         <v>355538</v>
       </c>
@@ -34950,7 +34951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:73">
       <c r="A154">
         <v>353508</v>
       </c>
@@ -35171,7 +35172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:73">
       <c r="A155">
         <v>355224</v>
       </c>
@@ -35392,7 +35393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:73">
       <c r="A156">
         <v>358944</v>
       </c>
@@ -35613,7 +35614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:73">
       <c r="A157">
         <v>355220</v>
       </c>
@@ -35834,7 +35835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:73">
       <c r="A158">
         <v>330198</v>
       </c>
@@ -36055,7 +36056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:73">
       <c r="A159">
         <v>357088</v>
       </c>
@@ -36276,7 +36277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:73">
       <c r="A160">
         <v>356261</v>
       </c>
@@ -36497,7 +36498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:73">
       <c r="A161">
         <v>356262</v>
       </c>
@@ -36718,7 +36719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:73">
       <c r="A162">
         <v>352946</v>
       </c>
@@ -36939,7 +36940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:73">
       <c r="A163">
         <v>355588</v>
       </c>
@@ -37160,7 +37161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:73">
       <c r="A164">
         <v>345275</v>
       </c>
@@ -37381,7 +37382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:73">
       <c r="A165">
         <v>351239</v>
       </c>
@@ -37602,7 +37603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:73">
       <c r="A166">
         <v>343918</v>
       </c>
@@ -37823,7 +37824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:73">
       <c r="A167">
         <v>356225</v>
       </c>
@@ -38044,7 +38045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:73">
       <c r="A168">
         <v>355428</v>
       </c>
@@ -38265,7 +38266,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:73">
       <c r="A169">
         <v>357792</v>
       </c>
@@ -38486,7 +38487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:73">
       <c r="A170">
         <v>354205</v>
       </c>
@@ -38707,7 +38708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:73">
       <c r="A171">
         <v>358117</v>
       </c>
@@ -38928,7 +38929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:73">
       <c r="A172">
         <v>358600</v>
       </c>
@@ -39149,7 +39150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:73">
       <c r="A173">
         <v>353194</v>
       </c>
@@ -39370,7 +39371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:73" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:73">
       <c r="A174">
         <v>346381</v>
       </c>
@@ -39596,5 +39597,27 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>